--- a/INTLINE/data/134/DEUSTATIS/Construction work completed in structural engineering years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Construction work completed in structural engineering years.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="56">
   <si>
     <t>Construction work completed in structural engineering:
 Germany, years, construction activities, type of
@@ -109,6 +109,9 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>Residential buildings</t>
   </si>
   <si>
@@ -190,7 +193,7 @@
     <t>space of dwellings".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:40:30</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:47:09</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -897,6 +900,10 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -989,6 +996,10 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1093,6 +1104,10 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1107,6 +1122,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -1204,7 +1223,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="24" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="25" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="24" max="24" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="23" max="23" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="22" max="22" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
     <col min="21" max="21" style="7" width="13.5703125" collapsed="true" customWidth="true"/>
@@ -1245,6 +1265,7 @@
     <col min="17" max="17" width="9.99609375" customWidth="true"/>
     <col min="18" max="18" width="9.99609375" customWidth="true"/>
     <col min="19" max="19" width="9.99609375" customWidth="true"/>
+    <col min="24" max="24" width="9.99609375" customWidth="true"/>
     <col min="1" max="1" width="27.67578125" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1269,183 +1290,190 @@
       </c>
     </row>
     <row r="5" ht="126.75" customHeight="true">
-      <c r="A5" t="s" s="69">
+      <c r="A5" t="s" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" t="s" s="71">
+      <c r="B5" s="72"/>
+      <c r="C5" t="s" s="73">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="72">
+      <c r="D5" t="s" s="74">
         <v>6</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="91"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="94"/>
     </row>
     <row r="6">
-      <c r="A6" s="92"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" t="s" s="95">
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" t="s" s="98">
         <v>7</v>
       </c>
-      <c r="E6" t="s" s="96">
+      <c r="E6" t="s" s="99">
         <v>8</v>
       </c>
-      <c r="F6" t="s" s="97">
+      <c r="F6" t="s" s="100">
         <v>9</v>
       </c>
-      <c r="G6" t="s" s="98">
+      <c r="G6" t="s" s="101">
         <v>10</v>
       </c>
-      <c r="H6" t="s" s="99">
+      <c r="H6" t="s" s="102">
         <v>11</v>
       </c>
-      <c r="I6" t="s" s="100">
+      <c r="I6" t="s" s="103">
         <v>12</v>
       </c>
-      <c r="J6" t="s" s="101">
+      <c r="J6" t="s" s="104">
         <v>13</v>
       </c>
-      <c r="K6" t="s" s="102">
+      <c r="K6" t="s" s="105">
         <v>14</v>
       </c>
-      <c r="L6" t="s" s="103">
+      <c r="L6" t="s" s="106">
         <v>15</v>
       </c>
-      <c r="M6" t="s" s="104">
+      <c r="M6" t="s" s="107">
         <v>16</v>
       </c>
-      <c r="N6" t="s" s="105">
+      <c r="N6" t="s" s="108">
         <v>17</v>
       </c>
-      <c r="O6" t="s" s="106">
+      <c r="O6" t="s" s="109">
         <v>18</v>
       </c>
-      <c r="P6" t="s" s="107">
+      <c r="P6" t="s" s="110">
         <v>19</v>
       </c>
-      <c r="Q6" t="s" s="108">
+      <c r="Q6" t="s" s="111">
         <v>20</v>
       </c>
-      <c r="R6" t="s" s="109">
+      <c r="R6" t="s" s="112">
         <v>21</v>
       </c>
-      <c r="S6" t="s" s="110">
+      <c r="S6" t="s" s="113">
         <v>22</v>
       </c>
-      <c r="T6" t="s" s="111">
+      <c r="T6" t="s" s="114">
         <v>23</v>
       </c>
-      <c r="U6" t="s" s="112">
+      <c r="U6" t="s" s="115">
         <v>24</v>
       </c>
-      <c r="V6" t="s" s="113">
+      <c r="V6" t="s" s="116">
         <v>25</v>
       </c>
-      <c r="W6" t="s" s="114">
+      <c r="W6" t="s" s="117">
         <v>26</v>
+      </c>
+      <c r="X6" t="s" s="118">
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="50.6" customHeight="true">
       <c r="A7" t="s" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="X8" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n" s="10">
         <v>177769.0</v>
@@ -1507,13 +1535,16 @@
       <c r="W9" t="n" s="10">
         <v>112935.0</v>
       </c>
+      <c r="X9" t="n" s="10">
+        <v>102955.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="s" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n" s="10">
         <v>174773.0</v>
@@ -1575,81 +1606,87 @@
       <c r="W10" t="n" s="10">
         <v>149615.0</v>
       </c>
+      <c r="X10" t="n" s="10">
+        <v>138824.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W11" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="X11" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n" s="10">
         <v>8087.0</v>
@@ -1711,13 +1748,16 @@
       <c r="W12" t="n" s="10">
         <v>7215.0</v>
       </c>
+      <c r="X12" t="n" s="10">
+        <v>6638.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n" s="10">
         <v>285925.0</v>
@@ -1779,13 +1819,16 @@
       <c r="W13" t="n" s="10">
         <v>268774.0</v>
       </c>
+      <c r="X13" t="n" s="10">
+        <v>256352.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n" s="10">
         <v>31378.0</v>
@@ -1847,13 +1890,16 @@
       <c r="W14" t="n" s="10">
         <v>27747.0</v>
       </c>
+      <c r="X14" t="n" s="10">
+        <v>25845.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n" s="10">
         <v>2985.0</v>
@@ -1889,39 +1935,42 @@
         <v>2855.0</v>
       </c>
       <c r="O15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W15" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="X15" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="n" s="10">
         <v>106.0</v>
@@ -1957,39 +2006,42 @@
         <v>88.0</v>
       </c>
       <c r="O16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W16" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="X16" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n" s="10">
         <v>1436982.0</v>
@@ -2051,13 +2103,16 @@
       <c r="W17" t="n" s="10">
         <v>1068823.0</v>
       </c>
+      <c r="X17" t="n" s="10">
+        <v>992049.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s" s="13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="n" s="10">
         <v>3.9046734E7</v>
@@ -2119,89 +2174,95 @@
       <c r="W18" t="n" s="10">
         <v>4.9170838E7</v>
       </c>
+      <c r="X18" t="n" s="10">
+        <v>4.7469726E7</v>
+      </c>
     </row>
     <row r="19" ht="50.6" customHeight="true">
       <c r="A19" t="s" s="14">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="X20" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n" s="10">
         <v>35436.0</v>
@@ -2263,13 +2324,16 @@
       <c r="W21" t="n" s="10">
         <v>24310.0</v>
       </c>
+      <c r="X21" t="n" s="10">
+        <v>22358.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n" s="10">
         <v>207707.0</v>
@@ -2331,81 +2395,87 @@
       <c r="W22" t="n" s="10">
         <v>185095.0</v>
       </c>
+      <c r="X22" t="n" s="10">
+        <v>190224.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W23" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="X23" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="n" s="10">
         <v>33333.0</v>
@@ -2467,13 +2537,16 @@
       <c r="W24" t="n" s="10">
         <v>26492.0</v>
       </c>
+      <c r="X24" t="n" s="10">
+        <v>25984.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n" s="10">
         <v>6403.0</v>
@@ -2535,13 +2608,16 @@
       <c r="W25" t="n" s="10">
         <v>4995.0</v>
       </c>
+      <c r="X25" t="n" s="10">
+        <v>5317.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="s" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="n" s="10">
         <v>549.0</v>
@@ -2603,13 +2679,16 @@
       <c r="W26" t="n" s="10">
         <v>357.0</v>
       </c>
+      <c r="X26" t="n" s="10">
+        <v>384.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n" s="10">
         <v>481.0</v>
@@ -2645,39 +2724,42 @@
         <v>364.0</v>
       </c>
       <c r="O27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W27" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="X27" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" t="n" s="10">
         <v>13.0</v>
@@ -2713,39 +2795,42 @@
         <v>10.0</v>
       </c>
       <c r="O28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W28" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="X28" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n" s="10">
         <v>24118.0</v>
@@ -2807,13 +2892,16 @@
       <c r="W29" t="n" s="10">
         <v>13098.0</v>
       </c>
+      <c r="X29" t="n" s="10">
+        <v>13974.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="s" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s" s="13">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n" s="10">
         <v>2.4686035E7</v>
@@ -2875,67 +2963,70 @@
       <c r="W30" t="n" s="10">
         <v>2.8931972E7</v>
       </c>
+      <c r="X30" t="n" s="10">
+        <v>2.9852041E7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="A4:X4"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:W5"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A19:W19"/>
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="D5:X5"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A19:X19"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:40:34&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:47:13&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Construction work completed in structural engineering years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Construction work completed in structural engineering years.xlsx
@@ -193,7 +193,7 @@
     <t>space of dwellings".</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:47:09</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:37:22</t>
   </si>
 </sst>
 </file>
@@ -3026,7 +3026,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:47:13&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:37:26&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>